--- a/data_execl/base_data/UIConfig.xlsx
+++ b/data_execl/base_data/UIConfig.xlsx
@@ -1,25 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\X1_turn\data_execl\base_data\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{49D9EAE6-C938-41DF-AFA0-2C051C0F453B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:dbsheet="http://web.wps.cn/et/2021/dbsheet">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="25080" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{510EF15E-FB01-435B-9B07-C9B1CA8A6104}"/>
+    <workbookView windowHeight="16160"/>
   </bookViews>
   <sheets>
     <sheet name="UIConfig" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
@@ -4556,33 +4547,368 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
-      <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -4590,9 +4916,251 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -4601,17 +5169,61 @@
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -4660,7 +5272,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -4693,26 +5305,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -4745,23 +5340,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -4903,24 +5481,21 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D565C31-019C-426B-9AB7-6FA9B6F79CFF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:I519"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A65" workbookViewId="0">
+      <selection activeCell="U93" sqref="U93"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:9">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -4946,7 +5521,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:9">
       <c r="B2" t="s">
         <v>8</v>
       </c>
@@ -4972,7 +5547,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:9">
       <c r="B3">
         <v>3</v>
       </c>
@@ -4998,7 +5573,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:9">
       <c r="B4" t="s">
         <v>10</v>
       </c>
@@ -5024,22 +5599,22 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:1">
       <c r="A5" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:1">
       <c r="A6" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:1">
       <c r="A7" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:7">
       <c r="B8">
         <v>1</v>
       </c>
@@ -5059,7 +5634,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:7">
       <c r="B9">
         <v>2</v>
       </c>
@@ -5079,7 +5654,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:9">
       <c r="B10">
         <v>3</v>
       </c>
@@ -5105,7 +5680,7 @@
         <v>6200</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:9">
       <c r="B11">
         <v>4</v>
       </c>
@@ -5131,7 +5706,7 @@
         <v>6300</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:9">
       <c r="B12">
         <v>5</v>
       </c>
@@ -5157,7 +5732,7 @@
         <v>6100</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:7">
       <c r="B13">
         <v>6</v>
       </c>
@@ -5177,7 +5752,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:8">
       <c r="B14">
         <v>7</v>
       </c>
@@ -5200,7 +5775,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:7">
       <c r="B15">
         <v>8</v>
       </c>
@@ -5220,7 +5795,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:7">
       <c r="B16">
         <v>9</v>
       </c>
@@ -5240,7 +5815,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:9">
       <c r="B17">
         <v>10</v>
       </c>
@@ -5263,7 +5838,7 @@
         <v>6000</v>
       </c>
     </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:7">
       <c r="B18">
         <v>11</v>
       </c>
@@ -5283,7 +5858,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:7">
       <c r="B19">
         <v>12</v>
       </c>
@@ -5303,7 +5878,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:7">
       <c r="B20">
         <v>13</v>
       </c>
@@ -5323,7 +5898,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:7">
       <c r="B21">
         <v>14</v>
       </c>
@@ -5343,7 +5918,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:8">
       <c r="B22">
         <v>15</v>
       </c>
@@ -5366,7 +5941,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:7">
       <c r="B23">
         <v>16</v>
       </c>
@@ -5386,7 +5961,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:7">
       <c r="B24">
         <v>17</v>
       </c>
@@ -5406,7 +5981,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:7">
       <c r="B25">
         <v>18</v>
       </c>
@@ -5426,7 +6001,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:7">
       <c r="B26">
         <v>19</v>
       </c>
@@ -5446,7 +6021,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:7">
       <c r="B27">
         <v>20</v>
       </c>
@@ -5466,7 +6041,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:7">
       <c r="B28">
         <v>21</v>
       </c>
@@ -5486,7 +6061,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:7">
       <c r="B29">
         <v>22</v>
       </c>
@@ -5506,7 +6081,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:7">
       <c r="B30">
         <v>23</v>
       </c>
@@ -5526,7 +6101,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:7">
       <c r="B31">
         <v>24</v>
       </c>
@@ -5546,7 +6121,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:7">
       <c r="B32">
         <v>25</v>
       </c>
@@ -5566,7 +6141,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="33" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:7">
       <c r="B33">
         <v>26</v>
       </c>
@@ -5586,7 +6161,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="34" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:7">
       <c r="B34">
         <v>27</v>
       </c>
@@ -5606,7 +6181,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="35" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:7">
       <c r="B35">
         <v>28</v>
       </c>
@@ -5626,7 +6201,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="36" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:7">
       <c r="B36">
         <v>29</v>
       </c>
@@ -5646,7 +6221,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="37" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:7">
       <c r="B37">
         <v>30</v>
       </c>
@@ -5666,7 +6241,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="38" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:7">
       <c r="B38">
         <v>31</v>
       </c>
@@ -5686,7 +6261,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="39" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:7">
       <c r="B39">
         <v>32</v>
       </c>
@@ -5706,7 +6281,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="40" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:7">
       <c r="B40">
         <v>33</v>
       </c>
@@ -5726,7 +6301,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="41" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:7">
       <c r="B41">
         <v>34</v>
       </c>
@@ -5746,7 +6321,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="42" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:7">
       <c r="B42">
         <v>35</v>
       </c>
@@ -5766,7 +6341,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="43" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:7">
       <c r="B43">
         <v>36</v>
       </c>
@@ -5786,7 +6361,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="44" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:7">
       <c r="B44">
         <v>37</v>
       </c>
@@ -5806,7 +6381,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="45" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:7">
       <c r="B45">
         <v>38</v>
       </c>
@@ -5826,7 +6401,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="46" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:7">
       <c r="B46">
         <v>39</v>
       </c>
@@ -5843,7 +6418,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="47" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:7">
       <c r="B47">
         <v>40</v>
       </c>
@@ -5860,7 +6435,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="48" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:7">
       <c r="B48">
         <v>41</v>
       </c>
@@ -5877,7 +6452,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="49" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="49" spans="2:7">
       <c r="B49">
         <v>42</v>
       </c>
@@ -5894,7 +6469,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="50" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="50" spans="2:7">
       <c r="B50">
         <v>43</v>
       </c>
@@ -5911,7 +6486,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="51" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="51" spans="2:7">
       <c r="B51">
         <v>44</v>
       </c>
@@ -5928,7 +6503,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="52" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="52" spans="2:7">
       <c r="B52">
         <v>45</v>
       </c>
@@ -5945,7 +6520,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="53" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="53" spans="2:7">
       <c r="B53">
         <v>46</v>
       </c>
@@ -5962,7 +6537,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="54" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="54" spans="2:7">
       <c r="B54">
         <v>47</v>
       </c>
@@ -5979,7 +6554,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="55" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="55" spans="2:7">
       <c r="B55">
         <v>48</v>
       </c>
@@ -5996,7 +6571,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="56" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="56" spans="2:7">
       <c r="B56">
         <v>49</v>
       </c>
@@ -6016,7 +6591,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="57" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="57" spans="2:7">
       <c r="B57">
         <v>50</v>
       </c>
@@ -6036,7 +6611,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="58" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="58" spans="2:7">
       <c r="B58">
         <v>51</v>
       </c>
@@ -6056,7 +6631,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="59" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="59" spans="2:7">
       <c r="B59">
         <v>52</v>
       </c>
@@ -6076,7 +6651,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="60" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="60" spans="2:7">
       <c r="B60">
         <v>53</v>
       </c>
@@ -6096,7 +6671,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="61" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="61" spans="2:7">
       <c r="B61">
         <v>54</v>
       </c>
@@ -6116,7 +6691,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="62" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="62" spans="2:7">
       <c r="B62">
         <v>55</v>
       </c>
@@ -6136,7 +6711,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="63" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="63" spans="2:7">
       <c r="B63">
         <v>56</v>
       </c>
@@ -6156,7 +6731,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="64" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="64" spans="2:7">
       <c r="B64">
         <v>57</v>
       </c>
@@ -6176,7 +6751,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="65" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="65" spans="2:7">
       <c r="B65">
         <v>58</v>
       </c>
@@ -6196,7 +6771,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="66" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="66" spans="2:7">
       <c r="B66">
         <v>59</v>
       </c>
@@ -6216,7 +6791,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="67" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:7">
       <c r="B67">
         <v>60</v>
       </c>
@@ -6236,7 +6811,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="68" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="68" spans="2:7">
       <c r="B68">
         <v>61</v>
       </c>
@@ -6256,7 +6831,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="69" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="69" spans="2:7">
       <c r="B69">
         <v>62</v>
       </c>
@@ -6276,7 +6851,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="70" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="70" spans="2:7">
       <c r="B70">
         <v>63</v>
       </c>
@@ -6296,7 +6871,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="71" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:7">
       <c r="B71">
         <v>64</v>
       </c>
@@ -6316,7 +6891,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="72" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="72" spans="2:7">
       <c r="B72">
         <v>65</v>
       </c>
@@ -6336,7 +6911,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="73" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:7">
       <c r="B73">
         <v>66</v>
       </c>
@@ -6356,7 +6931,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="74" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="74" spans="2:7">
       <c r="B74">
         <v>67</v>
       </c>
@@ -6376,7 +6951,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="75" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="75" spans="2:7">
       <c r="B75">
         <v>68</v>
       </c>
@@ -6396,7 +6971,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="76" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="76" spans="2:7">
       <c r="B76">
         <v>69</v>
       </c>
@@ -6416,7 +6991,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="77" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:7">
       <c r="B77">
         <v>70</v>
       </c>
@@ -6436,7 +7011,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="78" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="78" spans="2:7">
       <c r="B78">
         <v>71</v>
       </c>
@@ -6456,7 +7031,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="79" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="79" spans="2:7">
       <c r="B79">
         <v>72</v>
       </c>
@@ -6476,7 +7051,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="80" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:7">
       <c r="B80">
         <v>73</v>
       </c>
@@ -6496,7 +7071,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="81" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="81" spans="2:7">
       <c r="B81">
         <v>74</v>
       </c>
@@ -6516,7 +7091,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="82" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="82" spans="2:7">
       <c r="B82">
         <v>75</v>
       </c>
@@ -6536,7 +7111,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="83" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="83" spans="2:7">
       <c r="B83">
         <v>76</v>
       </c>
@@ -6556,7 +7131,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="84" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="84" spans="2:7">
       <c r="B84">
         <v>77</v>
       </c>
@@ -6576,7 +7151,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="85" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="85" spans="2:7">
       <c r="B85">
         <v>78</v>
       </c>
@@ -6596,7 +7171,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="86" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="86" spans="2:7">
       <c r="B86">
         <v>79</v>
       </c>
@@ -6616,7 +7191,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="87" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="87" spans="2:7">
       <c r="B87">
         <v>80</v>
       </c>
@@ -6636,7 +7211,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="88" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="88" spans="2:7">
       <c r="B88">
         <v>81</v>
       </c>
@@ -6656,7 +7231,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="89" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="89" spans="2:7">
       <c r="B89">
         <v>82</v>
       </c>
@@ -6676,7 +7251,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="90" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="90" spans="2:7">
       <c r="B90">
         <v>83</v>
       </c>
@@ -6696,7 +7271,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="91" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="91" spans="2:7">
       <c r="B91">
         <v>84</v>
       </c>
@@ -6716,7 +7291,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="92" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="92" spans="2:7">
       <c r="B92">
         <v>85</v>
       </c>
@@ -6736,7 +7311,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="93" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="93" spans="2:7">
       <c r="B93">
         <v>86</v>
       </c>
@@ -6756,7 +7331,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="94" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="94" spans="2:7">
       <c r="B94">
         <v>87</v>
       </c>
@@ -6776,7 +7351,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="95" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="95" spans="2:7">
       <c r="B95">
         <v>88</v>
       </c>
@@ -6796,7 +7371,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="96" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="96" spans="2:7">
       <c r="B96">
         <v>89</v>
       </c>
@@ -6816,7 +7391,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="97" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="97" spans="2:7">
       <c r="B97">
         <v>90</v>
       </c>
@@ -6836,7 +7411,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="98" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="98" spans="2:7">
       <c r="B98">
         <v>91</v>
       </c>
@@ -6856,7 +7431,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="99" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="99" spans="2:7">
       <c r="B99">
         <v>92</v>
       </c>
@@ -6876,7 +7451,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="100" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="100" spans="2:7">
       <c r="B100">
         <v>93</v>
       </c>
@@ -6896,7 +7471,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="101" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="101" spans="2:7">
       <c r="B101">
         <v>94</v>
       </c>
@@ -6916,7 +7491,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="102" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="102" spans="2:7">
       <c r="B102">
         <v>95</v>
       </c>
@@ -6936,7 +7511,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="103" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="103" spans="2:7">
       <c r="B103">
         <v>96</v>
       </c>
@@ -6956,7 +7531,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="104" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="104" spans="2:7">
       <c r="B104">
         <v>97</v>
       </c>
@@ -6976,7 +7551,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="105" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="105" spans="2:7">
       <c r="B105">
         <v>98</v>
       </c>
@@ -6996,7 +7571,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="106" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="106" spans="2:7">
       <c r="B106">
         <v>99</v>
       </c>
@@ -7016,7 +7591,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="107" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="107" spans="2:7">
       <c r="B107">
         <v>100</v>
       </c>
@@ -7036,7 +7611,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="108" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="108" spans="2:7">
       <c r="B108">
         <v>101</v>
       </c>
@@ -7056,7 +7631,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="109" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="109" spans="2:7">
       <c r="B109">
         <v>102</v>
       </c>
@@ -7076,7 +7651,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="110" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="110" spans="2:7">
       <c r="B110">
         <v>103</v>
       </c>
@@ -7096,7 +7671,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="111" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="111" spans="2:7">
       <c r="B111">
         <v>104</v>
       </c>
@@ -7116,7 +7691,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="112" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="112" spans="2:7">
       <c r="B112">
         <v>105</v>
       </c>
@@ -7136,7 +7711,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="113" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="113" spans="2:7">
       <c r="B113">
         <v>106</v>
       </c>
@@ -7156,7 +7731,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="114" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="114" spans="2:7">
       <c r="B114">
         <v>107</v>
       </c>
@@ -7176,7 +7751,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="115" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="115" spans="2:7">
       <c r="B115">
         <v>108</v>
       </c>
@@ -7196,7 +7771,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="116" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="116" spans="2:7">
       <c r="B116">
         <v>109</v>
       </c>
@@ -7216,7 +7791,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="117" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="117" spans="2:7">
       <c r="B117">
         <v>110</v>
       </c>
@@ -7236,7 +7811,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="118" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="118" spans="2:7">
       <c r="B118">
         <v>111</v>
       </c>
@@ -7256,7 +7831,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="119" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="119" spans="2:7">
       <c r="B119">
         <v>112</v>
       </c>
@@ -7276,7 +7851,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="120" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="120" spans="2:7">
       <c r="B120">
         <v>113</v>
       </c>
@@ -7296,7 +7871,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="121" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="121" spans="2:7">
       <c r="B121">
         <v>114</v>
       </c>
@@ -7316,7 +7891,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="122" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="122" spans="2:7">
       <c r="B122">
         <v>115</v>
       </c>
@@ -7336,7 +7911,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="123" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="123" spans="2:7">
       <c r="B123">
         <v>116</v>
       </c>
@@ -7356,7 +7931,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="124" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="124" spans="2:7">
       <c r="B124">
         <v>117</v>
       </c>
@@ -7376,7 +7951,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="125" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="125" spans="2:7">
       <c r="B125">
         <v>118</v>
       </c>
@@ -7396,7 +7971,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="126" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="126" spans="2:7">
       <c r="B126">
         <v>119</v>
       </c>
@@ -7416,7 +7991,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="127" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="127" spans="2:7">
       <c r="B127">
         <v>120</v>
       </c>
@@ -7436,7 +8011,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="128" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="128" spans="2:7">
       <c r="B128">
         <v>121</v>
       </c>
@@ -7456,7 +8031,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="129" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="129" spans="2:7">
       <c r="B129">
         <v>122</v>
       </c>
@@ -7476,7 +8051,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="130" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="130" spans="2:7">
       <c r="B130">
         <v>123</v>
       </c>
@@ -7496,7 +8071,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="131" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="131" spans="2:7">
       <c r="B131">
         <v>124</v>
       </c>
@@ -7516,7 +8091,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="132" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="132" spans="2:7">
       <c r="B132">
         <v>125</v>
       </c>
@@ -7536,7 +8111,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="133" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="133" spans="2:7">
       <c r="B133">
         <v>126</v>
       </c>
@@ -7556,7 +8131,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="134" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="134" spans="2:7">
       <c r="B134">
         <v>127</v>
       </c>
@@ -7576,7 +8151,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="135" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="135" spans="2:7">
       <c r="B135">
         <v>128</v>
       </c>
@@ -7596,7 +8171,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="136" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="136" spans="2:7">
       <c r="B136">
         <v>129</v>
       </c>
@@ -7616,7 +8191,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="137" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="137" spans="2:7">
       <c r="B137">
         <v>130</v>
       </c>
@@ -7636,7 +8211,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="138" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="138" spans="2:7">
       <c r="B138">
         <v>131</v>
       </c>
@@ -7656,7 +8231,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="139" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="139" spans="2:7">
       <c r="B139">
         <v>132</v>
       </c>
@@ -7676,7 +8251,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="140" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="140" spans="2:7">
       <c r="B140">
         <v>133</v>
       </c>
@@ -7696,7 +8271,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="141" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="141" spans="2:7">
       <c r="B141">
         <v>134</v>
       </c>
@@ -7716,7 +8291,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="142" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="142" spans="2:7">
       <c r="B142">
         <v>135</v>
       </c>
@@ -7736,7 +8311,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="143" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="143" spans="2:7">
       <c r="B143">
         <v>136</v>
       </c>
@@ -7756,7 +8331,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="144" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="144" spans="2:7">
       <c r="B144">
         <v>137</v>
       </c>
@@ -7776,7 +8351,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="145" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="145" spans="2:7">
       <c r="B145">
         <v>138</v>
       </c>
@@ -7796,7 +8371,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="146" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="146" spans="2:7">
       <c r="B146">
         <v>139</v>
       </c>
@@ -7816,7 +8391,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="147" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="147" spans="2:7">
       <c r="B147">
         <v>140</v>
       </c>
@@ -7836,7 +8411,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="148" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="148" spans="2:7">
       <c r="B148">
         <v>141</v>
       </c>
@@ -7856,7 +8431,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="149" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="149" spans="2:7">
       <c r="B149">
         <v>142</v>
       </c>
@@ -7876,7 +8451,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="150" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="150" spans="2:7">
       <c r="B150">
         <v>143</v>
       </c>
@@ -7896,7 +8471,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="151" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="151" spans="2:7">
       <c r="B151">
         <v>144</v>
       </c>
@@ -7916,7 +8491,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="152" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="152" spans="2:7">
       <c r="B152">
         <v>145</v>
       </c>
@@ -7936,7 +8511,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="153" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="153" spans="2:7">
       <c r="B153">
         <v>146</v>
       </c>
@@ -7956,7 +8531,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="154" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="154" spans="2:7">
       <c r="B154">
         <v>147</v>
       </c>
@@ -7976,7 +8551,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="155" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="155" spans="2:7">
       <c r="B155">
         <v>148</v>
       </c>
@@ -7996,7 +8571,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="156" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="156" spans="2:7">
       <c r="B156">
         <v>149</v>
       </c>
@@ -8016,7 +8591,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="157" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="157" spans="2:7">
       <c r="B157">
         <v>150</v>
       </c>
@@ -8036,7 +8611,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="158" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="158" spans="2:7">
       <c r="B158">
         <v>151</v>
       </c>
@@ -8056,7 +8631,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="159" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="159" spans="2:7">
       <c r="B159">
         <v>152</v>
       </c>
@@ -8076,7 +8651,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="160" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="160" spans="2:7">
       <c r="B160">
         <v>153</v>
       </c>
@@ -8096,7 +8671,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="161" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="161" spans="2:7">
       <c r="B161">
         <v>154</v>
       </c>
@@ -8116,7 +8691,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="162" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="162" spans="2:7">
       <c r="B162">
         <v>155</v>
       </c>
@@ -8136,7 +8711,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="163" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="163" spans="2:7">
       <c r="B163">
         <v>156</v>
       </c>
@@ -8156,7 +8731,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="164" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="164" spans="2:7">
       <c r="B164">
         <v>157</v>
       </c>
@@ -8176,7 +8751,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="165" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="165" spans="2:7">
       <c r="B165">
         <v>158</v>
       </c>
@@ -8196,7 +8771,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="166" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="166" spans="2:7">
       <c r="B166">
         <v>159</v>
       </c>
@@ -8216,7 +8791,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="167" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="167" spans="2:7">
       <c r="B167">
         <v>160</v>
       </c>
@@ -8236,7 +8811,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="168" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="168" spans="2:7">
       <c r="B168">
         <v>161</v>
       </c>
@@ -8256,7 +8831,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="169" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="169" spans="2:7">
       <c r="B169">
         <v>162</v>
       </c>
@@ -8276,7 +8851,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="170" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="170" spans="2:7">
       <c r="B170">
         <v>163</v>
       </c>
@@ -8296,7 +8871,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="171" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="171" spans="2:7">
       <c r="B171">
         <v>164</v>
       </c>
@@ -8316,7 +8891,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="172" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="172" spans="2:7">
       <c r="B172">
         <v>165</v>
       </c>
@@ -8336,7 +8911,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="173" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="173" spans="2:7">
       <c r="B173">
         <v>166</v>
       </c>
@@ -8356,7 +8931,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="174" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="174" spans="2:7">
       <c r="B174">
         <v>167</v>
       </c>
@@ -8376,7 +8951,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="175" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="175" spans="2:7">
       <c r="B175">
         <v>168</v>
       </c>
@@ -8396,7 +8971,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="176" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="176" spans="2:7">
       <c r="B176">
         <v>169</v>
       </c>
@@ -8416,7 +8991,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="177" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="177" spans="2:7">
       <c r="B177">
         <v>170</v>
       </c>
@@ -8436,7 +9011,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="178" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="178" spans="2:7">
       <c r="B178">
         <v>171</v>
       </c>
@@ -8456,7 +9031,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="179" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="179" spans="2:7">
       <c r="B179">
         <v>172</v>
       </c>
@@ -8476,7 +9051,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="180" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="180" spans="2:7">
       <c r="B180">
         <v>173</v>
       </c>
@@ -8496,7 +9071,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="181" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="181" spans="2:7">
       <c r="B181">
         <v>174</v>
       </c>
@@ -8516,7 +9091,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="182" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="182" spans="2:7">
       <c r="B182">
         <v>175</v>
       </c>
@@ -8536,7 +9111,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="183" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="183" spans="2:7">
       <c r="B183">
         <v>176</v>
       </c>
@@ -8556,7 +9131,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="184" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="184" spans="2:7">
       <c r="B184">
         <v>177</v>
       </c>
@@ -8576,7 +9151,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="185" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="185" spans="2:7">
       <c r="B185">
         <v>178</v>
       </c>
@@ -8596,7 +9171,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="186" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="186" spans="2:7">
       <c r="B186">
         <v>179</v>
       </c>
@@ -8616,7 +9191,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="187" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="187" spans="2:7">
       <c r="B187">
         <v>180</v>
       </c>
@@ -8636,7 +9211,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="188" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="188" spans="2:7">
       <c r="B188">
         <v>181</v>
       </c>
@@ -8656,7 +9231,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="189" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="189" spans="2:7">
       <c r="B189">
         <v>182</v>
       </c>
@@ -8676,7 +9251,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="190" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="190" spans="2:7">
       <c r="B190">
         <v>183</v>
       </c>
@@ -8696,7 +9271,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="191" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="191" spans="2:7">
       <c r="B191">
         <v>184</v>
       </c>
@@ -8716,7 +9291,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="192" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="192" spans="2:7">
       <c r="B192">
         <v>185</v>
       </c>
@@ -8736,7 +9311,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="193" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="193" spans="2:7">
       <c r="B193">
         <v>186</v>
       </c>
@@ -8756,7 +9331,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="194" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="194" spans="2:7">
       <c r="B194">
         <v>187</v>
       </c>
@@ -8776,7 +9351,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="195" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="195" spans="2:7">
       <c r="B195">
         <v>188</v>
       </c>
@@ -8796,7 +9371,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="196" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="196" spans="2:7">
       <c r="B196">
         <v>189</v>
       </c>
@@ -8816,7 +9391,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="197" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="197" spans="2:7">
       <c r="B197">
         <v>190</v>
       </c>
@@ -8836,7 +9411,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="198" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="198" spans="2:7">
       <c r="B198">
         <v>191</v>
       </c>
@@ -8856,7 +9431,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="199" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="199" spans="2:7">
       <c r="B199">
         <v>192</v>
       </c>
@@ -8876,7 +9451,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="200" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="200" spans="2:7">
       <c r="B200">
         <v>193</v>
       </c>
@@ -8896,7 +9471,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="201" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="201" spans="2:7">
       <c r="B201">
         <v>194</v>
       </c>
@@ -8916,7 +9491,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="202" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="202" spans="2:7">
       <c r="B202">
         <v>195</v>
       </c>
@@ -8936,7 +9511,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="203" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="203" spans="2:7">
       <c r="B203">
         <v>196</v>
       </c>
@@ -8956,7 +9531,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="204" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="204" spans="2:7">
       <c r="B204">
         <v>197</v>
       </c>
@@ -8976,7 +9551,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="205" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="205" spans="2:7">
       <c r="B205">
         <v>198</v>
       </c>
@@ -8996,7 +9571,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="206" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="206" spans="2:7">
       <c r="B206">
         <v>199</v>
       </c>
@@ -9016,7 +9591,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="207" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="207" spans="2:7">
       <c r="B207">
         <v>200</v>
       </c>
@@ -9036,7 +9611,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="208" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="208" spans="2:7">
       <c r="B208">
         <v>201</v>
       </c>
@@ -9056,7 +9631,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="209" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="209" spans="2:7">
       <c r="B209">
         <v>202</v>
       </c>
@@ -9076,7 +9651,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="210" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="210" spans="2:7">
       <c r="B210">
         <v>203</v>
       </c>
@@ -9096,7 +9671,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="211" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="211" spans="2:7">
       <c r="B211">
         <v>204</v>
       </c>
@@ -9116,7 +9691,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="212" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="212" spans="2:7">
       <c r="B212">
         <v>205</v>
       </c>
@@ -9136,7 +9711,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="213" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="213" spans="2:7">
       <c r="B213">
         <v>206</v>
       </c>
@@ -9156,7 +9731,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="214" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="214" spans="2:7">
       <c r="B214">
         <v>207</v>
       </c>
@@ -9176,7 +9751,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="215" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="215" spans="2:7">
       <c r="B215">
         <v>208</v>
       </c>
@@ -9196,7 +9771,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="216" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="216" spans="2:7">
       <c r="B216">
         <v>209</v>
       </c>
@@ -9216,7 +9791,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="217" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="217" spans="2:7">
       <c r="B217">
         <v>210</v>
       </c>
@@ -9236,7 +9811,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="218" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="218" spans="2:7">
       <c r="B218">
         <v>211</v>
       </c>
@@ -9256,7 +9831,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="219" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="219" spans="2:7">
       <c r="B219">
         <v>212</v>
       </c>
@@ -9276,7 +9851,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="220" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="220" spans="2:7">
       <c r="B220">
         <v>213</v>
       </c>
@@ -9296,7 +9871,7 @@
         <v>643</v>
       </c>
     </row>
-    <row r="221" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="221" spans="2:7">
       <c r="B221">
         <v>214</v>
       </c>
@@ -9316,7 +9891,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="222" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="222" spans="2:7">
       <c r="B222">
         <v>215</v>
       </c>
@@ -9336,7 +9911,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="223" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="223" spans="2:7">
       <c r="B223">
         <v>216</v>
       </c>
@@ -9356,7 +9931,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="224" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="224" spans="2:7">
       <c r="B224">
         <v>217</v>
       </c>
@@ -9376,7 +9951,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="225" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="225" spans="2:7">
       <c r="B225">
         <v>218</v>
       </c>
@@ -9396,7 +9971,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="226" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="226" spans="2:7">
       <c r="B226">
         <v>219</v>
       </c>
@@ -9416,7 +9991,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="227" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="227" spans="2:7">
       <c r="B227">
         <v>220</v>
       </c>
@@ -9436,7 +10011,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="228" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="228" spans="2:7">
       <c r="B228">
         <v>221</v>
       </c>
@@ -9456,7 +10031,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="229" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="229" spans="2:7">
       <c r="B229">
         <v>222</v>
       </c>
@@ -9476,7 +10051,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="230" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="230" spans="2:7">
       <c r="B230">
         <v>223</v>
       </c>
@@ -9496,7 +10071,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="231" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="231" spans="2:7">
       <c r="B231">
         <v>224</v>
       </c>
@@ -9516,7 +10091,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="232" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="232" spans="2:7">
       <c r="B232">
         <v>225</v>
       </c>
@@ -9536,7 +10111,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="233" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="233" spans="2:7">
       <c r="B233">
         <v>226</v>
       </c>
@@ -9556,7 +10131,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="234" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="234" spans="2:7">
       <c r="B234">
         <v>227</v>
       </c>
@@ -9576,7 +10151,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="235" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="235" spans="2:7">
       <c r="B235">
         <v>228</v>
       </c>
@@ -9596,7 +10171,7 @@
         <v>688</v>
       </c>
     </row>
-    <row r="236" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="236" spans="2:7">
       <c r="B236">
         <v>229</v>
       </c>
@@ -9616,7 +10191,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="237" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="237" spans="2:7">
       <c r="B237">
         <v>230</v>
       </c>
@@ -9636,7 +10211,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="238" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="238" spans="2:7">
       <c r="B238">
         <v>231</v>
       </c>
@@ -9656,7 +10231,7 @@
         <v>697</v>
       </c>
     </row>
-    <row r="239" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="239" spans="2:7">
       <c r="B239">
         <v>232</v>
       </c>
@@ -9676,7 +10251,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="240" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="240" spans="2:7">
       <c r="B240">
         <v>233</v>
       </c>
@@ -9696,7 +10271,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="241" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="241" spans="2:7">
       <c r="B241">
         <v>234</v>
       </c>
@@ -9716,7 +10291,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="242" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="242" spans="2:7">
       <c r="B242">
         <v>235</v>
       </c>
@@ -9736,7 +10311,7 @@
         <v>709</v>
       </c>
     </row>
-    <row r="243" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="243" spans="2:7">
       <c r="B243">
         <v>236</v>
       </c>
@@ -9756,7 +10331,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="244" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="244" spans="2:7">
       <c r="B244">
         <v>237</v>
       </c>
@@ -9776,7 +10351,7 @@
         <v>715</v>
       </c>
     </row>
-    <row r="245" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="245" spans="2:7">
       <c r="B245">
         <v>238</v>
       </c>
@@ -9796,7 +10371,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="246" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="246" spans="2:7">
       <c r="B246">
         <v>239</v>
       </c>
@@ -9816,7 +10391,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="247" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="247" spans="2:7">
       <c r="B247">
         <v>240</v>
       </c>
@@ -9836,7 +10411,7 @@
         <v>724</v>
       </c>
     </row>
-    <row r="248" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="248" spans="2:7">
       <c r="B248">
         <v>241</v>
       </c>
@@ -9856,7 +10431,7 @@
         <v>727</v>
       </c>
     </row>
-    <row r="249" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="249" spans="2:7">
       <c r="B249">
         <v>242</v>
       </c>
@@ -9876,7 +10451,7 @@
         <v>730</v>
       </c>
     </row>
-    <row r="250" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="250" spans="2:7">
       <c r="B250">
         <v>243</v>
       </c>
@@ -9896,7 +10471,7 @@
         <v>733</v>
       </c>
     </row>
-    <row r="251" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="251" spans="2:7">
       <c r="B251">
         <v>244</v>
       </c>
@@ -9916,7 +10491,7 @@
         <v>736</v>
       </c>
     </row>
-    <row r="252" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="252" spans="2:7">
       <c r="B252">
         <v>245</v>
       </c>
@@ -9936,7 +10511,7 @@
         <v>739</v>
       </c>
     </row>
-    <row r="253" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="253" spans="2:7">
       <c r="B253">
         <v>246</v>
       </c>
@@ -9956,7 +10531,7 @@
         <v>742</v>
       </c>
     </row>
-    <row r="254" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="254" spans="2:7">
       <c r="B254">
         <v>247</v>
       </c>
@@ -9976,7 +10551,7 @@
         <v>745</v>
       </c>
     </row>
-    <row r="255" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="255" spans="2:7">
       <c r="B255">
         <v>248</v>
       </c>
@@ -9996,7 +10571,7 @@
         <v>748</v>
       </c>
     </row>
-    <row r="256" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="256" spans="2:7">
       <c r="B256">
         <v>249</v>
       </c>
@@ -10016,7 +10591,7 @@
         <v>751</v>
       </c>
     </row>
-    <row r="257" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="257" spans="2:7">
       <c r="B257">
         <v>250</v>
       </c>
@@ -10036,7 +10611,7 @@
         <v>754</v>
       </c>
     </row>
-    <row r="258" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="258" spans="2:7">
       <c r="B258">
         <v>251</v>
       </c>
@@ -10056,7 +10631,7 @@
         <v>757</v>
       </c>
     </row>
-    <row r="259" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="259" spans="2:7">
       <c r="B259">
         <v>252</v>
       </c>
@@ -10076,7 +10651,7 @@
         <v>760</v>
       </c>
     </row>
-    <row r="260" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="260" spans="2:7">
       <c r="B260">
         <v>253</v>
       </c>
@@ -10096,7 +10671,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="261" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="261" spans="2:7">
       <c r="B261">
         <v>254</v>
       </c>
@@ -10116,7 +10691,7 @@
         <v>766</v>
       </c>
     </row>
-    <row r="262" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="262" spans="2:7">
       <c r="B262">
         <v>255</v>
       </c>
@@ -10136,7 +10711,7 @@
         <v>769</v>
       </c>
     </row>
-    <row r="263" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="263" spans="2:7">
       <c r="B263">
         <v>256</v>
       </c>
@@ -10156,7 +10731,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="264" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="264" spans="2:7">
       <c r="B264">
         <v>257</v>
       </c>
@@ -10176,7 +10751,7 @@
         <v>776</v>
       </c>
     </row>
-    <row r="265" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="265" spans="2:7">
       <c r="B265">
         <v>258</v>
       </c>
@@ -10196,7 +10771,7 @@
         <v>779</v>
       </c>
     </row>
-    <row r="266" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="266" spans="2:7">
       <c r="B266">
         <v>259</v>
       </c>
@@ -10216,7 +10791,7 @@
         <v>782</v>
       </c>
     </row>
-    <row r="267" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="267" spans="2:7">
       <c r="B267">
         <v>260</v>
       </c>
@@ -10236,7 +10811,7 @@
         <v>785</v>
       </c>
     </row>
-    <row r="268" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="268" spans="2:7">
       <c r="B268">
         <v>261</v>
       </c>
@@ -10256,7 +10831,7 @@
         <v>788</v>
       </c>
     </row>
-    <row r="269" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="269" spans="2:7">
       <c r="B269">
         <v>262</v>
       </c>
@@ -10276,7 +10851,7 @@
         <v>791</v>
       </c>
     </row>
-    <row r="270" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="270" spans="2:7">
       <c r="B270">
         <v>263</v>
       </c>
@@ -10296,7 +10871,7 @@
         <v>794</v>
       </c>
     </row>
-    <row r="271" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="271" spans="2:7">
       <c r="B271">
         <v>264</v>
       </c>
@@ -10316,7 +10891,7 @@
         <v>797</v>
       </c>
     </row>
-    <row r="272" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="272" spans="2:7">
       <c r="B272">
         <v>265</v>
       </c>
@@ -10336,7 +10911,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="273" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="273" spans="2:7">
       <c r="B273">
         <v>266</v>
       </c>
@@ -10356,7 +10931,7 @@
         <v>803</v>
       </c>
     </row>
-    <row r="274" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="274" spans="2:7">
       <c r="B274">
         <v>267</v>
       </c>
@@ -10376,7 +10951,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="275" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="275" spans="2:7">
       <c r="B275">
         <v>268</v>
       </c>
@@ -10396,7 +10971,7 @@
         <v>809</v>
       </c>
     </row>
-    <row r="276" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="276" spans="2:7">
       <c r="B276">
         <v>269</v>
       </c>
@@ -10416,7 +10991,7 @@
         <v>812</v>
       </c>
     </row>
-    <row r="277" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="277" spans="2:7">
       <c r="B277">
         <v>270</v>
       </c>
@@ -10436,7 +11011,7 @@
         <v>815</v>
       </c>
     </row>
-    <row r="278" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="278" spans="2:7">
       <c r="B278">
         <v>271</v>
       </c>
@@ -10456,7 +11031,7 @@
         <v>818</v>
       </c>
     </row>
-    <row r="279" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="279" spans="2:7">
       <c r="B279">
         <v>272</v>
       </c>
@@ -10476,7 +11051,7 @@
         <v>821</v>
       </c>
     </row>
-    <row r="280" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="280" spans="2:7">
       <c r="B280">
         <v>273</v>
       </c>
@@ -10496,7 +11071,7 @@
         <v>824</v>
       </c>
     </row>
-    <row r="281" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="281" spans="2:7">
       <c r="B281">
         <v>274</v>
       </c>
@@ -10516,7 +11091,7 @@
         <v>827</v>
       </c>
     </row>
-    <row r="282" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="282" spans="2:7">
       <c r="B282">
         <v>275</v>
       </c>
@@ -10536,7 +11111,7 @@
         <v>830</v>
       </c>
     </row>
-    <row r="283" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="283" spans="2:7">
       <c r="B283">
         <v>276</v>
       </c>
@@ -10556,7 +11131,7 @@
         <v>833</v>
       </c>
     </row>
-    <row r="284" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="284" spans="2:7">
       <c r="B284">
         <v>277</v>
       </c>
@@ -10576,7 +11151,7 @@
         <v>836</v>
       </c>
     </row>
-    <row r="285" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="285" spans="2:7">
       <c r="B285">
         <v>278</v>
       </c>
@@ -10596,7 +11171,7 @@
         <v>839</v>
       </c>
     </row>
-    <row r="286" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="286" spans="2:7">
       <c r="B286">
         <v>279</v>
       </c>
@@ -10616,7 +11191,7 @@
         <v>842</v>
       </c>
     </row>
-    <row r="287" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="287" spans="2:7">
       <c r="B287">
         <v>280</v>
       </c>
@@ -10636,7 +11211,7 @@
         <v>845</v>
       </c>
     </row>
-    <row r="288" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="288" spans="2:7">
       <c r="B288">
         <v>281</v>
       </c>
@@ -10656,7 +11231,7 @@
         <v>848</v>
       </c>
     </row>
-    <row r="289" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="289" spans="2:7">
       <c r="B289">
         <v>282</v>
       </c>
@@ -10676,7 +11251,7 @@
         <v>851</v>
       </c>
     </row>
-    <row r="290" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="290" spans="2:7">
       <c r="B290">
         <v>283</v>
       </c>
@@ -10696,7 +11271,7 @@
         <v>854</v>
       </c>
     </row>
-    <row r="291" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="291" spans="2:7">
       <c r="B291">
         <v>284</v>
       </c>
@@ -10716,7 +11291,7 @@
         <v>857</v>
       </c>
     </row>
-    <row r="292" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="292" spans="2:7">
       <c r="B292">
         <v>285</v>
       </c>
@@ -10736,7 +11311,7 @@
         <v>860</v>
       </c>
     </row>
-    <row r="293" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="293" spans="2:7">
       <c r="B293">
         <v>286</v>
       </c>
@@ -10756,7 +11331,7 @@
         <v>863</v>
       </c>
     </row>
-    <row r="294" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="294" spans="2:7">
       <c r="B294">
         <v>287</v>
       </c>
@@ -10776,7 +11351,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="295" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="295" spans="2:7">
       <c r="B295">
         <v>288</v>
       </c>
@@ -10796,7 +11371,7 @@
         <v>869</v>
       </c>
     </row>
-    <row r="296" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="296" spans="2:7">
       <c r="B296">
         <v>289</v>
       </c>
@@ -10816,7 +11391,7 @@
         <v>872</v>
       </c>
     </row>
-    <row r="297" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="297" spans="2:7">
       <c r="B297">
         <v>290</v>
       </c>
@@ -10836,7 +11411,7 @@
         <v>875</v>
       </c>
     </row>
-    <row r="298" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="298" spans="2:7">
       <c r="B298">
         <v>291</v>
       </c>
@@ -10856,7 +11431,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="299" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="299" spans="2:7">
       <c r="B299">
         <v>292</v>
       </c>
@@ -10876,7 +11451,7 @@
         <v>881</v>
       </c>
     </row>
-    <row r="300" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="300" spans="2:7">
       <c r="B300">
         <v>293</v>
       </c>
@@ -10896,7 +11471,7 @@
         <v>884</v>
       </c>
     </row>
-    <row r="301" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="301" spans="2:7">
       <c r="B301">
         <v>294</v>
       </c>
@@ -10916,7 +11491,7 @@
         <v>887</v>
       </c>
     </row>
-    <row r="302" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="302" spans="2:7">
       <c r="B302">
         <v>295</v>
       </c>
@@ -10936,7 +11511,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="303" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="303" spans="2:7">
       <c r="B303">
         <v>296</v>
       </c>
@@ -10956,7 +11531,7 @@
         <v>893</v>
       </c>
     </row>
-    <row r="304" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="304" spans="2:7">
       <c r="B304">
         <v>297</v>
       </c>
@@ -10976,7 +11551,7 @@
         <v>896</v>
       </c>
     </row>
-    <row r="305" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="305" spans="2:7">
       <c r="B305">
         <v>298</v>
       </c>
@@ -10996,7 +11571,7 @@
         <v>899</v>
       </c>
     </row>
-    <row r="306" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="306" spans="2:7">
       <c r="B306">
         <v>299</v>
       </c>
@@ -11016,7 +11591,7 @@
         <v>902</v>
       </c>
     </row>
-    <row r="307" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="307" spans="2:7">
       <c r="B307">
         <v>300</v>
       </c>
@@ -11036,7 +11611,7 @@
         <v>905</v>
       </c>
     </row>
-    <row r="308" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="308" spans="2:7">
       <c r="B308">
         <v>301</v>
       </c>
@@ -11056,7 +11631,7 @@
         <v>908</v>
       </c>
     </row>
-    <row r="309" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="309" spans="2:7">
       <c r="B309">
         <v>302</v>
       </c>
@@ -11076,7 +11651,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="310" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="310" spans="2:7">
       <c r="B310">
         <v>303</v>
       </c>
@@ -11096,7 +11671,7 @@
         <v>914</v>
       </c>
     </row>
-    <row r="311" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="311" spans="2:9">
       <c r="B311">
         <v>304</v>
       </c>
@@ -11119,7 +11694,7 @@
         <v>5999</v>
       </c>
     </row>
-    <row r="312" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="312" spans="2:7">
       <c r="B312">
         <v>305</v>
       </c>
@@ -11139,7 +11714,7 @@
         <v>921</v>
       </c>
     </row>
-    <row r="313" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="313" spans="2:7">
       <c r="B313">
         <v>306</v>
       </c>
@@ -11159,7 +11734,7 @@
         <v>924</v>
       </c>
     </row>
-    <row r="314" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="314" spans="2:7">
       <c r="B314">
         <v>307</v>
       </c>
@@ -11179,7 +11754,7 @@
         <v>927</v>
       </c>
     </row>
-    <row r="315" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="315" spans="2:7">
       <c r="B315">
         <v>308</v>
       </c>
@@ -11199,7 +11774,7 @@
         <v>930</v>
       </c>
     </row>
-    <row r="316" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="316" spans="2:9">
       <c r="B316">
         <v>309</v>
       </c>
@@ -11225,7 +11800,7 @@
         <v>5998</v>
       </c>
     </row>
-    <row r="317" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="317" spans="2:7">
       <c r="B317">
         <v>310</v>
       </c>
@@ -11245,7 +11820,7 @@
         <v>936</v>
       </c>
     </row>
-    <row r="318" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="318" spans="2:7">
       <c r="B318">
         <v>311</v>
       </c>
@@ -11265,7 +11840,7 @@
         <v>939</v>
       </c>
     </row>
-    <row r="319" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="319" spans="2:7">
       <c r="B319">
         <v>312</v>
       </c>
@@ -11285,7 +11860,7 @@
         <v>942</v>
       </c>
     </row>
-    <row r="320" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="320" spans="2:7">
       <c r="B320">
         <v>313</v>
       </c>
@@ -11305,7 +11880,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="321" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="321" spans="2:7">
       <c r="B321">
         <v>314</v>
       </c>
@@ -11325,7 +11900,7 @@
         <v>948</v>
       </c>
     </row>
-    <row r="322" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="322" spans="2:7">
       <c r="B322">
         <v>315</v>
       </c>
@@ -11345,7 +11920,7 @@
         <v>951</v>
       </c>
     </row>
-    <row r="323" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="323" spans="2:7">
       <c r="B323">
         <v>316</v>
       </c>
@@ -11365,7 +11940,7 @@
         <v>954</v>
       </c>
     </row>
-    <row r="324" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="324" spans="2:7">
       <c r="B324">
         <v>317</v>
       </c>
@@ -11385,7 +11960,7 @@
         <v>957</v>
       </c>
     </row>
-    <row r="325" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="325" spans="2:7">
       <c r="B325">
         <v>318</v>
       </c>
@@ -11405,7 +11980,7 @@
         <v>960</v>
       </c>
     </row>
-    <row r="326" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="326" spans="2:7">
       <c r="B326">
         <v>319</v>
       </c>
@@ -11425,7 +12000,7 @@
         <v>962</v>
       </c>
     </row>
-    <row r="327" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="327" spans="2:7">
       <c r="B327">
         <v>320</v>
       </c>
@@ -11445,7 +12020,7 @@
         <v>964</v>
       </c>
     </row>
-    <row r="328" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="328" spans="2:7">
       <c r="B328">
         <v>321</v>
       </c>
@@ -11465,7 +12040,7 @@
         <v>966</v>
       </c>
     </row>
-    <row r="329" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="329" spans="2:7">
       <c r="B329">
         <v>322</v>
       </c>
@@ -11485,7 +12060,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="330" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="330" spans="2:7">
       <c r="B330">
         <v>323</v>
       </c>
@@ -11505,7 +12080,7 @@
         <v>971</v>
       </c>
     </row>
-    <row r="331" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="331" spans="2:7">
       <c r="B331">
         <v>324</v>
       </c>
@@ -11525,7 +12100,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="332" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="332" spans="2:7">
       <c r="B332">
         <v>325</v>
       </c>
@@ -11545,7 +12120,7 @@
         <v>977</v>
       </c>
     </row>
-    <row r="333" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="333" spans="2:7">
       <c r="B333">
         <v>326</v>
       </c>
@@ -11565,7 +12140,7 @@
         <v>980</v>
       </c>
     </row>
-    <row r="334" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="334" spans="2:7">
       <c r="B334">
         <v>327</v>
       </c>
@@ -11585,7 +12160,7 @@
         <v>983</v>
       </c>
     </row>
-    <row r="335" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="335" spans="2:7">
       <c r="B335">
         <v>328</v>
       </c>
@@ -11605,7 +12180,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="336" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="336" spans="2:7">
       <c r="B336">
         <v>329</v>
       </c>
@@ -11625,7 +12200,7 @@
         <v>987</v>
       </c>
     </row>
-    <row r="337" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="337" spans="2:7">
       <c r="B337">
         <v>330</v>
       </c>
@@ -11645,7 +12220,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="338" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="338" spans="2:7">
       <c r="B338">
         <v>331</v>
       </c>
@@ -11665,7 +12240,7 @@
         <v>993</v>
       </c>
     </row>
-    <row r="339" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="339" spans="2:7">
       <c r="B339">
         <v>332</v>
       </c>
@@ -11685,7 +12260,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="340" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="340" spans="2:7">
       <c r="B340">
         <v>333</v>
       </c>
@@ -11705,7 +12280,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="341" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="341" spans="2:7">
       <c r="B341">
         <v>334</v>
       </c>
@@ -11725,7 +12300,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="342" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="342" spans="2:7">
       <c r="B342">
         <v>335</v>
       </c>
@@ -11745,7 +12320,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="343" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="343" spans="2:7">
       <c r="B343">
         <v>336</v>
       </c>
@@ -11765,7 +12340,7 @@
         <v>1008</v>
       </c>
     </row>
-    <row r="344" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="344" spans="2:7">
       <c r="B344">
         <v>337</v>
       </c>
@@ -11785,7 +12360,7 @@
         <v>1011</v>
       </c>
     </row>
-    <row r="345" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="345" spans="2:7">
       <c r="B345">
         <v>338</v>
       </c>
@@ -11805,7 +12380,7 @@
         <v>1014</v>
       </c>
     </row>
-    <row r="346" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="346" spans="2:7">
       <c r="B346">
         <v>339</v>
       </c>
@@ -11825,7 +12400,7 @@
         <v>1017</v>
       </c>
     </row>
-    <row r="347" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="347" spans="2:7">
       <c r="B347">
         <v>340</v>
       </c>
@@ -11845,7 +12420,7 @@
         <v>1020</v>
       </c>
     </row>
-    <row r="348" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="348" spans="2:7">
       <c r="B348">
         <v>341</v>
       </c>
@@ -11865,7 +12440,7 @@
         <v>1023</v>
       </c>
     </row>
-    <row r="349" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="349" spans="2:7">
       <c r="B349">
         <v>342</v>
       </c>
@@ -11885,7 +12460,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="350" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="350" spans="2:7">
       <c r="B350">
         <v>343</v>
       </c>
@@ -11905,7 +12480,7 @@
         <v>1029</v>
       </c>
     </row>
-    <row r="351" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="351" spans="2:7">
       <c r="B351">
         <v>344</v>
       </c>
@@ -11925,7 +12500,7 @@
         <v>1032</v>
       </c>
     </row>
-    <row r="352" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="352" spans="2:7">
       <c r="B352">
         <v>345</v>
       </c>
@@ -11945,7 +12520,7 @@
         <v>1035</v>
       </c>
     </row>
-    <row r="353" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="353" spans="2:7">
       <c r="B353">
         <v>346</v>
       </c>
@@ -11965,7 +12540,7 @@
         <v>1038</v>
       </c>
     </row>
-    <row r="354" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="354" spans="2:7">
       <c r="B354">
         <v>347</v>
       </c>
@@ -11985,7 +12560,7 @@
         <v>1041</v>
       </c>
     </row>
-    <row r="355" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="355" spans="2:7">
       <c r="B355">
         <v>348</v>
       </c>
@@ -12005,7 +12580,7 @@
         <v>1044</v>
       </c>
     </row>
-    <row r="356" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="356" spans="2:7">
       <c r="B356">
         <v>349</v>
       </c>
@@ -12025,7 +12600,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="357" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="357" spans="2:7">
       <c r="B357">
         <v>350</v>
       </c>
@@ -12045,7 +12620,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="358" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="358" spans="2:7">
       <c r="B358">
         <v>351</v>
       </c>
@@ -12065,7 +12640,7 @@
         <v>1053</v>
       </c>
     </row>
-    <row r="359" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="359" spans="2:7">
       <c r="B359">
         <v>352</v>
       </c>
@@ -12085,7 +12660,7 @@
         <v>1056</v>
       </c>
     </row>
-    <row r="360" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="360" spans="2:7">
       <c r="B360">
         <v>353</v>
       </c>
@@ -12105,7 +12680,7 @@
         <v>1059</v>
       </c>
     </row>
-    <row r="361" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="361" spans="2:7">
       <c r="B361">
         <v>354</v>
       </c>
@@ -12125,7 +12700,7 @@
         <v>1062</v>
       </c>
     </row>
-    <row r="362" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="362" spans="2:7">
       <c r="B362">
         <v>355</v>
       </c>
@@ -12145,7 +12720,7 @@
         <v>1065</v>
       </c>
     </row>
-    <row r="363" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="363" spans="2:7">
       <c r="B363">
         <v>356</v>
       </c>
@@ -12165,7 +12740,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="364" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="364" spans="2:7">
       <c r="B364">
         <v>357</v>
       </c>
@@ -12185,7 +12760,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="365" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="365" spans="2:7">
       <c r="B365">
         <v>358</v>
       </c>
@@ -12205,7 +12780,7 @@
         <v>1072</v>
       </c>
     </row>
-    <row r="366" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="366" spans="2:7">
       <c r="B366">
         <v>359</v>
       </c>
@@ -12225,7 +12800,7 @@
         <v>1075</v>
       </c>
     </row>
-    <row r="367" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="367" spans="2:7">
       <c r="B367">
         <v>360</v>
       </c>
@@ -12245,7 +12820,7 @@
         <v>1078</v>
       </c>
     </row>
-    <row r="368" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="368" spans="2:7">
       <c r="B368">
         <v>361</v>
       </c>
@@ -12265,7 +12840,7 @@
         <v>1081</v>
       </c>
     </row>
-    <row r="369" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="369" spans="2:7">
       <c r="B369">
         <v>362</v>
       </c>
@@ -12285,7 +12860,7 @@
         <v>1084</v>
       </c>
     </row>
-    <row r="370" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="370" spans="2:7">
       <c r="B370">
         <v>363</v>
       </c>
@@ -12305,7 +12880,7 @@
         <v>1087</v>
       </c>
     </row>
-    <row r="371" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="371" spans="2:7">
       <c r="B371">
         <v>364</v>
       </c>
@@ -12325,7 +12900,7 @@
         <v>1090</v>
       </c>
     </row>
-    <row r="372" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="372" spans="2:7">
       <c r="B372">
         <v>365</v>
       </c>
@@ -12345,7 +12920,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="373" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="373" spans="2:7">
       <c r="B373">
         <v>366</v>
       </c>
@@ -12365,7 +12940,7 @@
         <v>1096</v>
       </c>
     </row>
-    <row r="374" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="374" spans="2:7">
       <c r="B374">
         <v>367</v>
       </c>
@@ -12385,7 +12960,7 @@
         <v>1099</v>
       </c>
     </row>
-    <row r="375" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="375" spans="2:7">
       <c r="B375">
         <v>368</v>
       </c>
@@ -12405,7 +12980,7 @@
         <v>1102</v>
       </c>
     </row>
-    <row r="376" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="376" spans="2:7">
       <c r="B376">
         <v>369</v>
       </c>
@@ -12425,7 +13000,7 @@
         <v>1105</v>
       </c>
     </row>
-    <row r="377" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="377" spans="2:7">
       <c r="B377">
         <v>370</v>
       </c>
@@ -12445,7 +13020,7 @@
         <v>1108</v>
       </c>
     </row>
-    <row r="378" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="378" spans="2:7">
       <c r="B378">
         <v>371</v>
       </c>
@@ -12465,7 +13040,7 @@
         <v>1111</v>
       </c>
     </row>
-    <row r="379" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="379" spans="2:7">
       <c r="B379">
         <v>372</v>
       </c>
@@ -12485,7 +13060,7 @@
         <v>1114</v>
       </c>
     </row>
-    <row r="380" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="380" spans="2:7">
       <c r="B380">
         <v>373</v>
       </c>
@@ -12505,7 +13080,7 @@
         <v>1117</v>
       </c>
     </row>
-    <row r="381" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="381" spans="2:7">
       <c r="B381">
         <v>374</v>
       </c>
@@ -12525,7 +13100,7 @@
         <v>1120</v>
       </c>
     </row>
-    <row r="382" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="382" spans="2:7">
       <c r="B382">
         <v>375</v>
       </c>
@@ -12545,7 +13120,7 @@
         <v>1123</v>
       </c>
     </row>
-    <row r="383" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="383" spans="2:7">
       <c r="B383">
         <v>376</v>
       </c>
@@ -12565,7 +13140,7 @@
         <v>1126</v>
       </c>
     </row>
-    <row r="384" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="384" spans="2:7">
       <c r="B384">
         <v>377</v>
       </c>
@@ -12585,7 +13160,7 @@
         <v>1129</v>
       </c>
     </row>
-    <row r="385" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="385" spans="2:7">
       <c r="B385">
         <v>378</v>
       </c>
@@ -12605,7 +13180,7 @@
         <v>1132</v>
       </c>
     </row>
-    <row r="386" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="386" spans="2:7">
       <c r="B386">
         <v>379</v>
       </c>
@@ -12625,7 +13200,7 @@
         <v>1135</v>
       </c>
     </row>
-    <row r="387" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="387" spans="2:7">
       <c r="B387">
         <v>380</v>
       </c>
@@ -12645,7 +13220,7 @@
         <v>1138</v>
       </c>
     </row>
-    <row r="388" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="388" spans="2:7">
       <c r="B388">
         <v>381</v>
       </c>
@@ -12665,7 +13240,7 @@
         <v>1141</v>
       </c>
     </row>
-    <row r="389" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="389" spans="2:7">
       <c r="B389">
         <v>382</v>
       </c>
@@ -12685,7 +13260,7 @@
         <v>1144</v>
       </c>
     </row>
-    <row r="390" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="390" spans="2:7">
       <c r="B390">
         <v>383</v>
       </c>
@@ -12705,7 +13280,7 @@
         <v>1147</v>
       </c>
     </row>
-    <row r="391" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="391" spans="2:7">
       <c r="B391">
         <v>384</v>
       </c>
@@ -12725,7 +13300,7 @@
         <v>1150</v>
       </c>
     </row>
-    <row r="392" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="392" spans="2:7">
       <c r="B392">
         <v>385</v>
       </c>
@@ -12745,7 +13320,7 @@
         <v>1153</v>
       </c>
     </row>
-    <row r="393" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="393" spans="2:7">
       <c r="B393">
         <v>386</v>
       </c>
@@ -12765,7 +13340,7 @@
         <v>1156</v>
       </c>
     </row>
-    <row r="394" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="394" spans="2:7">
       <c r="B394">
         <v>387</v>
       </c>
@@ -12785,7 +13360,7 @@
         <v>1159</v>
       </c>
     </row>
-    <row r="395" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="395" spans="2:7">
       <c r="B395">
         <v>388</v>
       </c>
@@ -12805,7 +13380,7 @@
         <v>1162</v>
       </c>
     </row>
-    <row r="396" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="396" spans="2:7">
       <c r="B396">
         <v>389</v>
       </c>
@@ -12825,7 +13400,7 @@
         <v>1165</v>
       </c>
     </row>
-    <row r="397" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="397" spans="2:7">
       <c r="B397">
         <v>390</v>
       </c>
@@ -12845,7 +13420,7 @@
         <v>1168</v>
       </c>
     </row>
-    <row r="398" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="398" spans="2:7">
       <c r="B398">
         <v>391</v>
       </c>
@@ -12865,7 +13440,7 @@
         <v>1171</v>
       </c>
     </row>
-    <row r="399" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="399" spans="2:7">
       <c r="B399">
         <v>392</v>
       </c>
@@ -12885,7 +13460,7 @@
         <v>1174</v>
       </c>
     </row>
-    <row r="400" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="400" spans="2:7">
       <c r="B400">
         <v>393</v>
       </c>
@@ -12905,7 +13480,7 @@
         <v>1177</v>
       </c>
     </row>
-    <row r="401" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="401" spans="2:7">
       <c r="B401">
         <v>394</v>
       </c>
@@ -12925,7 +13500,7 @@
         <v>1180</v>
       </c>
     </row>
-    <row r="402" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="402" spans="2:7">
       <c r="B402">
         <v>395</v>
       </c>
@@ -12945,7 +13520,7 @@
         <v>1183</v>
       </c>
     </row>
-    <row r="403" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="403" spans="2:7">
       <c r="B403">
         <v>396</v>
       </c>
@@ -12965,7 +13540,7 @@
         <v>1186</v>
       </c>
     </row>
-    <row r="404" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="404" spans="2:7">
       <c r="B404">
         <v>397</v>
       </c>
@@ -12985,7 +13560,7 @@
         <v>1189</v>
       </c>
     </row>
-    <row r="405" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="405" spans="2:7">
       <c r="B405">
         <v>398</v>
       </c>
@@ -13005,7 +13580,7 @@
         <v>1192</v>
       </c>
     </row>
-    <row r="406" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="406" spans="2:7">
       <c r="B406">
         <v>399</v>
       </c>
@@ -13025,7 +13600,7 @@
         <v>1195</v>
       </c>
     </row>
-    <row r="407" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="407" spans="2:7">
       <c r="B407">
         <v>400</v>
       </c>
@@ -13045,7 +13620,7 @@
         <v>1198</v>
       </c>
     </row>
-    <row r="408" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="408" spans="2:7">
       <c r="B408">
         <v>401</v>
       </c>
@@ -13065,7 +13640,7 @@
         <v>1201</v>
       </c>
     </row>
-    <row r="409" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="409" spans="2:7">
       <c r="B409">
         <v>402</v>
       </c>
@@ -13085,7 +13660,7 @@
         <v>1204</v>
       </c>
     </row>
-    <row r="410" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="410" spans="2:7">
       <c r="B410">
         <v>403</v>
       </c>
@@ -13105,7 +13680,7 @@
         <v>1207</v>
       </c>
     </row>
-    <row r="411" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="411" spans="2:7">
       <c r="B411">
         <v>404</v>
       </c>
@@ -13125,7 +13700,7 @@
         <v>1210</v>
       </c>
     </row>
-    <row r="412" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="412" spans="2:7">
       <c r="B412">
         <v>405</v>
       </c>
@@ -13145,7 +13720,7 @@
         <v>1213</v>
       </c>
     </row>
-    <row r="413" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="413" spans="2:7">
       <c r="B413">
         <v>406</v>
       </c>
@@ -13165,7 +13740,7 @@
         <v>1216</v>
       </c>
     </row>
-    <row r="414" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="414" spans="2:7">
       <c r="B414">
         <v>407</v>
       </c>
@@ -13185,7 +13760,7 @@
         <v>1219</v>
       </c>
     </row>
-    <row r="415" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="415" spans="2:7">
       <c r="B415">
         <v>408</v>
       </c>
@@ -13205,7 +13780,7 @@
         <v>1222</v>
       </c>
     </row>
-    <row r="416" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="416" spans="2:7">
       <c r="B416">
         <v>409</v>
       </c>
@@ -13225,7 +13800,7 @@
         <v>1225</v>
       </c>
     </row>
-    <row r="417" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="417" spans="2:7">
       <c r="B417">
         <v>410</v>
       </c>
@@ -13245,7 +13820,7 @@
         <v>1228</v>
       </c>
     </row>
-    <row r="418" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="418" spans="2:7">
       <c r="B418">
         <v>411</v>
       </c>
@@ -13265,7 +13840,7 @@
         <v>1231</v>
       </c>
     </row>
-    <row r="419" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="419" spans="2:7">
       <c r="B419">
         <v>412</v>
       </c>
@@ -13285,7 +13860,7 @@
         <v>1234</v>
       </c>
     </row>
-    <row r="420" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="420" spans="2:7">
       <c r="B420">
         <v>413</v>
       </c>
@@ -13305,7 +13880,7 @@
         <v>1237</v>
       </c>
     </row>
-    <row r="421" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="421" spans="2:7">
       <c r="B421">
         <v>414</v>
       </c>
@@ -13325,7 +13900,7 @@
         <v>1240</v>
       </c>
     </row>
-    <row r="422" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="422" spans="2:7">
       <c r="B422">
         <v>415</v>
       </c>
@@ -13345,7 +13920,7 @@
         <v>1243</v>
       </c>
     </row>
-    <row r="423" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="423" spans="2:7">
       <c r="B423">
         <v>416</v>
       </c>
@@ -13365,7 +13940,7 @@
         <v>1246</v>
       </c>
     </row>
-    <row r="424" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="424" spans="2:7">
       <c r="B424">
         <v>417</v>
       </c>
@@ -13385,7 +13960,7 @@
         <v>1249</v>
       </c>
     </row>
-    <row r="425" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="425" spans="2:7">
       <c r="B425">
         <v>418</v>
       </c>
@@ -13405,7 +13980,7 @@
         <v>1252</v>
       </c>
     </row>
-    <row r="426" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="426" spans="2:7">
       <c r="B426">
         <v>419</v>
       </c>
@@ -13425,7 +14000,7 @@
         <v>1255</v>
       </c>
     </row>
-    <row r="427" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="427" spans="2:7">
       <c r="B427">
         <v>420</v>
       </c>
@@ -13445,7 +14020,7 @@
         <v>1258</v>
       </c>
     </row>
-    <row r="428" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="428" spans="2:7">
       <c r="B428">
         <v>421</v>
       </c>
@@ -13465,7 +14040,7 @@
         <v>1261</v>
       </c>
     </row>
-    <row r="429" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="429" spans="2:7">
       <c r="B429">
         <v>422</v>
       </c>
@@ -13485,7 +14060,7 @@
         <v>1264</v>
       </c>
     </row>
-    <row r="430" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="430" spans="2:7">
       <c r="B430">
         <v>423</v>
       </c>
@@ -13505,7 +14080,7 @@
         <v>1267</v>
       </c>
     </row>
-    <row r="431" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="431" spans="2:7">
       <c r="B431">
         <v>424</v>
       </c>
@@ -13525,7 +14100,7 @@
         <v>1270</v>
       </c>
     </row>
-    <row r="432" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="432" spans="2:7">
       <c r="B432">
         <v>425</v>
       </c>
@@ -13545,7 +14120,7 @@
         <v>1273</v>
       </c>
     </row>
-    <row r="433" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="433" spans="2:7">
       <c r="B433">
         <v>426</v>
       </c>
@@ -13565,7 +14140,7 @@
         <v>1276</v>
       </c>
     </row>
-    <row r="434" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="434" spans="2:7">
       <c r="B434">
         <v>427</v>
       </c>
@@ -13585,7 +14160,7 @@
         <v>1279</v>
       </c>
     </row>
-    <row r="435" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="435" spans="2:7">
       <c r="B435">
         <v>428</v>
       </c>
@@ -13605,7 +14180,7 @@
         <v>1282</v>
       </c>
     </row>
-    <row r="436" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="436" spans="2:7">
       <c r="B436">
         <v>429</v>
       </c>
@@ -13625,7 +14200,7 @@
         <v>1285</v>
       </c>
     </row>
-    <row r="437" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="437" spans="2:7">
       <c r="B437">
         <v>430</v>
       </c>
@@ -13642,7 +14217,7 @@
         <v>1287</v>
       </c>
     </row>
-    <row r="438" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="438" spans="2:7">
       <c r="B438">
         <v>431</v>
       </c>
@@ -13659,7 +14234,7 @@
         <v>1289</v>
       </c>
     </row>
-    <row r="439" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="439" spans="2:7">
       <c r="B439">
         <v>432</v>
       </c>
@@ -13676,7 +14251,7 @@
         <v>1291</v>
       </c>
     </row>
-    <row r="440" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="440" spans="2:7">
       <c r="B440">
         <v>433</v>
       </c>
@@ -13693,7 +14268,7 @@
         <v>1293</v>
       </c>
     </row>
-    <row r="441" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="441" spans="2:7">
       <c r="B441">
         <v>434</v>
       </c>
@@ -13710,7 +14285,7 @@
         <v>1295</v>
       </c>
     </row>
-    <row r="442" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="442" spans="2:7">
       <c r="B442">
         <v>435</v>
       </c>
@@ -13727,7 +14302,7 @@
         <v>1297</v>
       </c>
     </row>
-    <row r="443" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="443" spans="2:7">
       <c r="B443">
         <v>436</v>
       </c>
@@ -13744,7 +14319,7 @@
         <v>1299</v>
       </c>
     </row>
-    <row r="444" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="444" spans="2:7">
       <c r="B444">
         <v>437</v>
       </c>
@@ -13761,7 +14336,7 @@
         <v>1301</v>
       </c>
     </row>
-    <row r="445" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="445" spans="2:7">
       <c r="B445">
         <v>438</v>
       </c>
@@ -13778,7 +14353,7 @@
         <v>1303</v>
       </c>
     </row>
-    <row r="446" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="446" spans="2:7">
       <c r="B446">
         <v>439</v>
       </c>
@@ -13795,7 +14370,7 @@
         <v>1305</v>
       </c>
     </row>
-    <row r="447" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="447" spans="2:7">
       <c r="B447">
         <v>440</v>
       </c>
@@ -13812,7 +14387,7 @@
         <v>1307</v>
       </c>
     </row>
-    <row r="448" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="448" spans="2:7">
       <c r="B448">
         <v>441</v>
       </c>
@@ -13829,7 +14404,7 @@
         <v>1309</v>
       </c>
     </row>
-    <row r="449" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="449" spans="2:7">
       <c r="B449">
         <v>442</v>
       </c>
@@ -13846,7 +14421,7 @@
         <v>1311</v>
       </c>
     </row>
-    <row r="450" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="450" spans="2:7">
       <c r="B450">
         <v>443</v>
       </c>
@@ -13863,7 +14438,7 @@
         <v>1313</v>
       </c>
     </row>
-    <row r="451" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="451" spans="2:7">
       <c r="B451">
         <v>444</v>
       </c>
@@ -13880,7 +14455,7 @@
         <v>1315</v>
       </c>
     </row>
-    <row r="452" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="452" spans="2:7">
       <c r="B452">
         <v>445</v>
       </c>
@@ -13897,7 +14472,7 @@
         <v>1317</v>
       </c>
     </row>
-    <row r="453" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="453" spans="2:7">
       <c r="B453">
         <v>446</v>
       </c>
@@ -13914,7 +14489,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="454" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="454" spans="2:7">
       <c r="B454">
         <v>447</v>
       </c>
@@ -13931,7 +14506,7 @@
         <v>1321</v>
       </c>
     </row>
-    <row r="455" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="455" spans="2:7">
       <c r="B455">
         <v>448</v>
       </c>
@@ -13948,7 +14523,7 @@
         <v>1323</v>
       </c>
     </row>
-    <row r="456" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="456" spans="2:7">
       <c r="B456">
         <v>449</v>
       </c>
@@ -13965,7 +14540,7 @@
         <v>1325</v>
       </c>
     </row>
-    <row r="457" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="457" spans="2:7">
       <c r="B457">
         <v>450</v>
       </c>
@@ -13982,7 +14557,7 @@
         <v>1327</v>
       </c>
     </row>
-    <row r="458" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="458" spans="2:7">
       <c r="B458">
         <v>451</v>
       </c>
@@ -13999,7 +14574,7 @@
         <v>1329</v>
       </c>
     </row>
-    <row r="459" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="459" spans="2:7">
       <c r="B459">
         <v>452</v>
       </c>
@@ -14016,7 +14591,7 @@
         <v>1331</v>
       </c>
     </row>
-    <row r="460" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="460" spans="2:7">
       <c r="B460">
         <v>453</v>
       </c>
@@ -14033,7 +14608,7 @@
         <v>1333</v>
       </c>
     </row>
-    <row r="461" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="461" spans="2:7">
       <c r="B461">
         <v>454</v>
       </c>
@@ -14050,7 +14625,7 @@
         <v>1335</v>
       </c>
     </row>
-    <row r="462" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="462" spans="2:7">
       <c r="B462">
         <v>455</v>
       </c>
@@ -14067,7 +14642,7 @@
         <v>1337</v>
       </c>
     </row>
-    <row r="463" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="463" spans="2:7">
       <c r="B463">
         <v>456</v>
       </c>
@@ -14084,7 +14659,7 @@
         <v>1339</v>
       </c>
     </row>
-    <row r="464" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="464" spans="2:7">
       <c r="B464">
         <v>457</v>
       </c>
@@ -14104,7 +14679,7 @@
         <v>1342</v>
       </c>
     </row>
-    <row r="465" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="465" spans="2:7">
       <c r="B465">
         <v>458</v>
       </c>
@@ -14124,7 +14699,7 @@
         <v>1345</v>
       </c>
     </row>
-    <row r="466" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="466" spans="2:7">
       <c r="B466">
         <v>459</v>
       </c>
@@ -14144,7 +14719,7 @@
         <v>1348</v>
       </c>
     </row>
-    <row r="467" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="467" spans="2:9">
       <c r="B467">
         <v>460</v>
       </c>
@@ -14167,7 +14742,7 @@
         <v>5900</v>
       </c>
     </row>
-    <row r="468" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="468" spans="2:7">
       <c r="B468">
         <v>461</v>
       </c>
@@ -14187,7 +14762,7 @@
         <v>1354</v>
       </c>
     </row>
-    <row r="469" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="469" spans="2:7">
       <c r="B469">
         <v>462</v>
       </c>
@@ -14207,7 +14782,7 @@
         <v>1357</v>
       </c>
     </row>
-    <row r="470" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="470" spans="2:7">
       <c r="B470">
         <v>464</v>
       </c>
@@ -14227,7 +14802,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="471" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="471" spans="2:7">
       <c r="B471">
         <v>465</v>
       </c>
@@ -14247,7 +14822,7 @@
         <v>1363</v>
       </c>
     </row>
-    <row r="472" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="472" spans="2:7">
       <c r="B472">
         <v>466</v>
       </c>
@@ -14267,7 +14842,7 @@
         <v>1366</v>
       </c>
     </row>
-    <row r="473" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="473" spans="2:7">
       <c r="B473">
         <v>467</v>
       </c>
@@ -14287,7 +14862,7 @@
         <v>1369</v>
       </c>
     </row>
-    <row r="474" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="474" spans="2:7">
       <c r="B474">
         <v>468</v>
       </c>
@@ -14307,7 +14882,7 @@
         <v>1372</v>
       </c>
     </row>
-    <row r="475" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="475" spans="2:7">
       <c r="B475">
         <v>469</v>
       </c>
@@ -14327,7 +14902,7 @@
         <v>1375</v>
       </c>
     </row>
-    <row r="476" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="476" spans="2:7">
       <c r="B476">
         <v>470</v>
       </c>
@@ -14347,7 +14922,7 @@
         <v>1378</v>
       </c>
     </row>
-    <row r="477" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="477" spans="2:7">
       <c r="B477">
         <v>471</v>
       </c>
@@ -14367,7 +14942,7 @@
         <v>1381</v>
       </c>
     </row>
-    <row r="478" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="478" spans="2:7">
       <c r="B478">
         <v>472</v>
       </c>
@@ -14387,7 +14962,7 @@
         <v>1384</v>
       </c>
     </row>
-    <row r="479" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="479" spans="2:7">
       <c r="B479">
         <v>473</v>
       </c>
@@ -14407,7 +14982,7 @@
         <v>1387</v>
       </c>
     </row>
-    <row r="480" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="480" spans="2:7">
       <c r="B480">
         <v>474</v>
       </c>
@@ -14427,7 +15002,7 @@
         <v>1389</v>
       </c>
     </row>
-    <row r="481" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="481" spans="2:7">
       <c r="B481">
         <v>999</v>
       </c>
@@ -14447,7 +15022,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="482" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="482" spans="2:7">
       <c r="B482">
         <v>998</v>
       </c>
@@ -14467,7 +15042,7 @@
         <v>1395</v>
       </c>
     </row>
-    <row r="483" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="483" spans="2:7">
       <c r="B483">
         <v>997</v>
       </c>
@@ -14487,7 +15062,7 @@
         <v>1398</v>
       </c>
     </row>
-    <row r="484" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="484" spans="2:7">
       <c r="B484">
         <v>995</v>
       </c>
@@ -14507,7 +15082,7 @@
         <v>1401</v>
       </c>
     </row>
-    <row r="485" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="485" spans="2:7">
       <c r="B485">
         <v>994</v>
       </c>
@@ -14527,7 +15102,7 @@
         <v>1404</v>
       </c>
     </row>
-    <row r="486" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="486" spans="2:7">
       <c r="B486">
         <v>993</v>
       </c>
@@ -14547,7 +15122,7 @@
         <v>1407</v>
       </c>
     </row>
-    <row r="487" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="487" spans="2:7">
       <c r="B487">
         <v>992</v>
       </c>
@@ -14567,7 +15142,7 @@
         <v>1410</v>
       </c>
     </row>
-    <row r="488" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="488" spans="2:7">
       <c r="B488">
         <v>990</v>
       </c>
@@ -14587,7 +15162,7 @@
         <v>1413</v>
       </c>
     </row>
-    <row r="489" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="489" spans="2:7">
       <c r="B489">
         <v>991</v>
       </c>
@@ -14607,7 +15182,7 @@
         <v>1416</v>
       </c>
     </row>
-    <row r="490" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="490" spans="2:7">
       <c r="B490">
         <v>989</v>
       </c>
@@ -14627,7 +15202,7 @@
         <v>1419</v>
       </c>
     </row>
-    <row r="491" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="491" spans="2:7">
       <c r="B491">
         <v>988</v>
       </c>
@@ -14647,7 +15222,7 @@
         <v>1422</v>
       </c>
     </row>
-    <row r="492" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="492" spans="2:7">
       <c r="B492">
         <v>987</v>
       </c>
@@ -14667,7 +15242,7 @@
         <v>1425</v>
       </c>
     </row>
-    <row r="493" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="493" spans="2:7">
       <c r="B493">
         <v>986</v>
       </c>
@@ -14687,7 +15262,7 @@
         <v>1428</v>
       </c>
     </row>
-    <row r="494" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="494" spans="2:7">
       <c r="B494">
         <v>985</v>
       </c>
@@ -14707,7 +15282,7 @@
         <v>1430</v>
       </c>
     </row>
-    <row r="495" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="495" spans="2:7">
       <c r="B495">
         <v>984</v>
       </c>
@@ -14727,7 +15302,7 @@
         <v>1432</v>
       </c>
     </row>
-    <row r="496" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="496" spans="2:7">
       <c r="B496">
         <v>983</v>
       </c>
@@ -14747,7 +15322,7 @@
         <v>1435</v>
       </c>
     </row>
-    <row r="497" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="497" spans="2:7">
       <c r="B497">
         <v>982</v>
       </c>
@@ -14767,7 +15342,7 @@
         <v>1438</v>
       </c>
     </row>
-    <row r="498" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="498" spans="2:7">
       <c r="B498">
         <v>981</v>
       </c>
@@ -14787,7 +15362,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="499" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="499" spans="2:7">
       <c r="B499">
         <v>980</v>
       </c>
@@ -14807,7 +15382,7 @@
         <v>1444</v>
       </c>
     </row>
-    <row r="500" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="500" spans="2:7">
       <c r="B500">
         <v>979</v>
       </c>
@@ -14827,7 +15402,7 @@
         <v>1447</v>
       </c>
     </row>
-    <row r="501" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="501" spans="2:7">
       <c r="B501">
         <v>978</v>
       </c>
@@ -14847,7 +15422,7 @@
         <v>1450</v>
       </c>
     </row>
-    <row r="502" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="502" spans="2:7">
       <c r="B502">
         <v>977</v>
       </c>
@@ -14867,7 +15442,7 @@
         <v>1453</v>
       </c>
     </row>
-    <row r="503" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="503" spans="2:7">
       <c r="B503">
         <v>976</v>
       </c>
@@ -14887,7 +15462,7 @@
         <v>1456</v>
       </c>
     </row>
-    <row r="504" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="504" spans="2:7">
       <c r="B504">
         <v>975</v>
       </c>
@@ -14907,7 +15482,7 @@
         <v>1459</v>
       </c>
     </row>
-    <row r="505" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="505" spans="2:7">
       <c r="B505">
         <v>974</v>
       </c>
@@ -14927,7 +15502,7 @@
         <v>1462</v>
       </c>
     </row>
-    <row r="506" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="506" spans="2:7">
       <c r="B506">
         <v>973</v>
       </c>
@@ -14947,7 +15522,7 @@
         <v>1465</v>
       </c>
     </row>
-    <row r="507" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="507" spans="2:7">
       <c r="B507">
         <v>972</v>
       </c>
@@ -14967,7 +15542,7 @@
         <v>1468</v>
       </c>
     </row>
-    <row r="508" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="508" spans="2:7">
       <c r="B508">
         <v>971</v>
       </c>
@@ -14987,7 +15562,7 @@
         <v>1471</v>
       </c>
     </row>
-    <row r="509" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="509" spans="2:7">
       <c r="B509">
         <v>970</v>
       </c>
@@ -15007,7 +15582,7 @@
         <v>1474</v>
       </c>
     </row>
-    <row r="510" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="510" spans="2:7">
       <c r="B510">
         <v>1000</v>
       </c>
@@ -15027,7 +15602,7 @@
         <v>1477</v>
       </c>
     </row>
-    <row r="511" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="511" spans="2:7">
       <c r="B511">
         <v>969</v>
       </c>
@@ -15047,7 +15622,7 @@
         <v>1480</v>
       </c>
     </row>
-    <row r="512" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="512" spans="2:7">
       <c r="B512">
         <v>1001</v>
       </c>
@@ -15067,7 +15642,7 @@
         <v>1483</v>
       </c>
     </row>
-    <row r="513" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="513" spans="2:7">
       <c r="B513">
         <v>1002</v>
       </c>
@@ -15087,7 +15662,7 @@
         <v>1486</v>
       </c>
     </row>
-    <row r="514" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="514" spans="2:7">
       <c r="B514">
         <v>1003</v>
       </c>
@@ -15107,7 +15682,7 @@
         <v>1489</v>
       </c>
     </row>
-    <row r="515" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="515" spans="2:7">
       <c r="B515">
         <v>1004</v>
       </c>
@@ -15127,7 +15702,7 @@
         <v>1492</v>
       </c>
     </row>
-    <row r="516" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="516" spans="2:7">
       <c r="B516">
         <v>1005</v>
       </c>
@@ -15147,7 +15722,7 @@
         <v>1495</v>
       </c>
     </row>
-    <row r="517" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="517" spans="2:7">
       <c r="B517">
         <v>1006</v>
       </c>
@@ -15167,7 +15742,7 @@
         <v>1498</v>
       </c>
     </row>
-    <row r="518" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="518" spans="2:7">
       <c r="B518">
         <v>1007</v>
       </c>
@@ -15187,7 +15762,7 @@
         <v>1501</v>
       </c>
     </row>
-    <row r="519" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="519" spans="2:7">
       <c r="B519">
         <v>1008</v>
       </c>
@@ -15208,7 +15783,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>